--- a/17-  Análise de Eventos para cada Cenário.xlsx
+++ b/17-  Análise de Eventos para cada Cenário.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson A. Alves\Desktop\Faculdade\2º Semestre\Engenharia de Software\Nossos_artefatos\Engenharia_de_software-TPD_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77929823-52C1-44FD-B4F9-0898424FA99C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586B724-2B2E-47D0-ACB1-1693E0EB0D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
   <si>
     <t>Capacidade</t>
   </si>
@@ -81,9 +81,6 @@
     <t xml:space="preserve">Recusar pagamento </t>
   </si>
   <si>
-    <t>Produto pronto</t>
-  </si>
-  <si>
     <t xml:space="preserve">Entregar produto </t>
   </si>
   <si>
@@ -109,6 +106,18 @@
   </si>
   <si>
     <t>x(2)</t>
+  </si>
+  <si>
+    <t>x(4)</t>
+  </si>
+  <si>
+    <t>x(5)</t>
+  </si>
+  <si>
+    <t>Retirar produto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega do produto </t>
   </si>
 </sst>
 </file>
@@ -132,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +178,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -326,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,6 +421,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64D5539-9B1C-47CB-A706-259A5CF84E4F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,12 +822,12 @@
       <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -819,13 +840,13 @@
       <c r="C3" s="14">
         <v>2</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -839,22 +860,84 @@
       <c r="C4" s="20">
         <v>3</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="23" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="14">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -865,7 +948,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1088,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,7 +1198,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1242,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>10</v>
@@ -1168,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="5"/>
@@ -1186,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1252,7 +1335,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>10</v>
@@ -1261,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -1277,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -1295,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
@@ -1318,7 +1401,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,7 +1445,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>10</v>

--- a/17-  Análise de Eventos para cada Cenário.xlsx
+++ b/17-  Análise de Eventos para cada Cenário.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisson A. Alves\Desktop\Faculdade\2º Semestre\Engenharia de Software\Nossos_artefatos\Engenharia_de_software-TPD_Grafica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bixdi\Documents\ARINHA\Engenharia_de_software-TPD_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D586B724-2B2E-47D0-ACB1-1693E0EB0D0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="Completo" sheetId="6" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Capacidade</t>
   </si>
@@ -111,19 +110,37 @@
     <t>x(4)</t>
   </si>
   <si>
-    <t>x(5)</t>
-  </si>
-  <si>
     <t>Retirar produto</t>
   </si>
   <si>
     <t xml:space="preserve">Entrega do produto </t>
+  </si>
+  <si>
+    <t>Solicitar serviço</t>
+  </si>
+  <si>
+    <t>Planejar produção</t>
+  </si>
+  <si>
+    <t>Realizar serviço</t>
+  </si>
+  <si>
+    <t>Solicitar serviço ao parceiro</t>
+  </si>
+  <si>
+    <t>Receber produto pronto</t>
+  </si>
+  <si>
+    <t>Recusar serviço</t>
+  </si>
+  <si>
+    <t>x(3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -141,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +195,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -341,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,11 +434,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +469,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -487,7 +507,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -522,23 +542,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -574,26 +577,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,84 +752,85 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64D5539-9B1C-47CB-A706-259A5CF84E4F}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="10" max="10" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="20">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="7"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="14">
+      <c r="C3" s="20">
         <v>2</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="10" t="s">
         <v>25</v>
@@ -854,16 +841,14 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
-      <c r="B4" s="20" t="s">
-        <v>13</v>
-      </c>
+      <c r="B4" s="25"/>
       <c r="C4" s="20">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="16"/>
+      <c r="D4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
         <v>26</v>
@@ -873,37 +858,33 @@
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="20">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="7"/>
+      <c r="D5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="14">
+      <c r="C6" s="20">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="16"/>
+      <c r="D6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10" t="s">
         <v>27</v>
@@ -913,38 +894,127 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="20">
         <v>6</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="16"/>
+      <c r="D7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20">
+        <v>7</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="20">
+        <v>8</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="4"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="4"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="4"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="4"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="4"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1084,7 +1154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1194,7 +1264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1242,7 +1312,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>10</v>
@@ -1287,7 +1357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60C1948-5505-41A7-BEA1-93B5CDB36D09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1397,7 +1467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3888CDD-E0D6-4310-990B-7649F6689A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1445,7 +1515,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>10</v>
